--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>5.459349632513475</v>
+        <v>7068.711122921395</v>
       </c>
       <c r="O2" t="n">
-        <v>7.663455922194517</v>
+        <v>6993.065970389833</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>14.56139576022782</v>
+        <v>9020.386661498747</v>
       </c>
       <c r="O2" t="n">
-        <v>15.55438691646255</v>
+        <v>9721.982264164202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>13027.78294739439</v>
       </c>
       <c r="O2" t="n">
-        <v>29.52072102211405</v>
+        <v>12857.64537285333</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>13145.17518818184</v>
       </c>
       <c r="O2" t="n">
-        <v>30.60089816728763</v>
+        <v>12857.64537285333</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>13593.64654746441</v>
       </c>
       <c r="O2" t="n">
-        <v>31.53493689325457</v>
+        <v>14932.85150547986</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>13593.64654746441</v>
       </c>
       <c r="O2" t="n">
-        <v>31.53493689325457</v>
+        <v>14932.85150547986</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1038.270150146177</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>435.7823875228254</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12209.63539433945</v>
+        <v>28829.95429482079</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21387.58560912</v>
+        <v>15999.27815958817</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15420.65935714604</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>6318.60532691424</v>
+        <v>11286.13269883</v>
       </c>
       <c r="N2" t="n">
-        <v>5902.56953411499</v>
+        <v>7240.482101700985</v>
       </c>
       <c r="O2" t="n">
-        <v>3631.364355903118</v>
+        <v>6763.923782365135</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6035.592060419673</v>
+        <v>412.8642372630347</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>4175.540191128684</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40424.84508528787</v>
+        <v>44535.67533374021</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37742.26279167915</v>
+        <v>36820.41621176117</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>88084.69715301515</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>25175.01211883246</v>
+        <v>17445.30966502775</v>
       </c>
       <c r="N2" t="n">
-        <v>18463.66859547609</v>
+        <v>9100.129533245807</v>
       </c>
       <c r="O2" t="n">
-        <v>8840.553875435449</v>
+        <v>7873.95248561621</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>2505.601390754976</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>5768.450008874052</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>56254.37625095449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>53564.23668729185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>23877.68385614976</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13513.33478279869</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>12997.60227839026</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>2505.601390754976</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>5768.450008874052</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>56254.37625095449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>53564.23668729185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>23877.68385614976</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13513.33478279869</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>12997.60227839026</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>2505.601390754976</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>5768.450008874052</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>56254.37625095449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>53564.23668729185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>23877.68385614976</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13513.33478279869</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>12997.60227839026</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>2505.601390754976</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>5768.450008874052</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>56254.37625095449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>53564.23668729185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>48700.22979492001</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>23877.68385614976</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13513.33478279869</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>12997.60227839026</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>435.7823875228254</v>
+        <v>348.111133040007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28829.95429482079</v>
+        <v>28878.40257356465</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15999.27815958817</v>
+        <v>15751.17087451186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>48991.24167597</v>
       </c>
       <c r="M2" t="n">
-        <v>11286.13269883</v>
+        <v>11299.89730188</v>
       </c>
       <c r="N2" t="n">
-        <v>7240.482101700985</v>
+        <v>7337.013682751313</v>
       </c>
       <c r="O2" t="n">
-        <v>6763.923782365135</v>
+        <v>6991.647948766419</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>412.8642372630347</v>
+        <v>220.9181339077783</v>
       </c>
       <c r="B2" t="n">
-        <v>4175.540191128684</v>
+        <v>6050.092133217868</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44535.67533374021</v>
+        <v>54981.0853406054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36820.41621176117</v>
+        <v>44136.25158196639</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>17445.30966502775</v>
+        <v>21956.38472896</v>
       </c>
       <c r="N2" t="n">
-        <v>9100.129533245807</v>
+        <v>10685.8390845415</v>
       </c>
       <c r="O2" t="n">
-        <v>7873.95248561621</v>
+        <v>9283.603099344651</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2505.601390754976</v>
+        <v>2577.607803474762</v>
       </c>
       <c r="B2" t="n">
-        <v>5768.450008874052</v>
+        <v>7296.571711709315</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56254.37625095449</v>
+        <v>65951.79560972707</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53564.23668729185</v>
+        <v>59961.01146418095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>23877.68385614976</v>
+        <v>28243.54178664774</v>
       </c>
       <c r="N2" t="n">
-        <v>13513.33478279869</v>
+        <v>15618.49026829105</v>
       </c>
       <c r="O2" t="n">
-        <v>12997.60227839026</v>
+        <v>15289.26274986199</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2505.601390754976</v>
+        <v>2577.607803474762</v>
       </c>
       <c r="B2" t="n">
-        <v>5768.450008874052</v>
+        <v>7296.571711709315</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56254.37625095449</v>
+        <v>65951.79560972707</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53564.23668729185</v>
+        <v>59961.01146418095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>23877.68385614976</v>
+        <v>28243.54178664774</v>
       </c>
       <c r="N2" t="n">
-        <v>13513.33478279869</v>
+        <v>15618.49026829105</v>
       </c>
       <c r="O2" t="n">
-        <v>12997.60227839026</v>
+        <v>15289.26274986199</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2505.601390754976</v>
+        <v>2577.607803474762</v>
       </c>
       <c r="B2" t="n">
-        <v>5768.450008874052</v>
+        <v>7296.571711709315</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56254.37625095449</v>
+        <v>65951.79560972707</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53564.23668729185</v>
+        <v>59961.01146418095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>23877.68385614976</v>
+        <v>28243.54178664774</v>
       </c>
       <c r="N2" t="n">
-        <v>13513.33478279869</v>
+        <v>15618.49026829105</v>
       </c>
       <c r="O2" t="n">
-        <v>12997.60227839026</v>
+        <v>15289.26274986199</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2505.601390754976</v>
+        <v>2577.607803474762</v>
       </c>
       <c r="B2" t="n">
-        <v>5768.450008874052</v>
+        <v>7296.571711709315</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56254.37625095449</v>
+        <v>65951.79560972707</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53564.23668729185</v>
+        <v>59961.01146418095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48700.22979492001</v>
+        <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>23877.68385614976</v>
+        <v>28243.54178664774</v>
       </c>
       <c r="N2" t="n">
-        <v>13513.33478279869</v>
+        <v>15618.49026829105</v>
       </c>
       <c r="O2" t="n">
-        <v>12997.60227839026</v>
+        <v>15289.26274986199</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7068.711122921395</v>
+        <v>7152.019986098924</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.065970389833</v>
+        <v>6979.505869462286</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9020.386661498747</v>
+        <v>10587.30466466927</v>
       </c>
       <c r="O2" t="n">
-        <v>9721.982264164202</v>
+        <v>12059.56090694894</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13027.78294739439</v>
+        <v>15122.94790489287</v>
       </c>
       <c r="O2" t="n">
-        <v>12857.64537285333</v>
+        <v>14757.33642912432</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13145.17518818184</v>
+        <v>15227.20816887006</v>
       </c>
       <c r="O2" t="n">
-        <v>12857.64537285333</v>
+        <v>14757.33642912432</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13593.64654746441</v>
+        <v>15761.83005432624</v>
       </c>
       <c r="O2" t="n">
-        <v>14932.85150547986</v>
+        <v>17090.83148627414</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13593.64654746441</v>
+        <v>15761.83005432624</v>
       </c>
       <c r="O2" t="n">
-        <v>14932.85150547986</v>
+        <v>17090.83148627414</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1038.270150146177</v>
+        <v>5316.139655440325</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48354.90449340604</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12209.63539433945</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7542.310400722788</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>21387.58560912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15420.65935714604</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6318.60532691424</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5902.56953411499</v>
+        <v>2317.204104134014</v>
       </c>
       <c r="O2" t="n">
-        <v>3631.364355903118</v>
+        <v>1995.412676509689</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6035.592060419673</v>
+        <v>11875.88565627916</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>189028.2191017097</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40424.84508528787</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14985.91772494195</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7387.315360922054</v>
       </c>
       <c r="I2" t="n">
-        <v>37742.26279167915</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>88084.69715301515</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25175.01211883246</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18463.66859547609</v>
+        <v>7382.18890910614</v>
       </c>
       <c r="O2" t="n">
-        <v>8840.553875435449</v>
+        <v>5756.362569820732</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>35028.0143043175</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272567.486325675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16352.18544265549</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11592.52045454036</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13117.60677809191</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>9654.274888703534</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>35028.0143043175</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272567.486325675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16352.18544265549</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11592.52045454036</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13117.60677809191</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>9654.274888703534</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>35028.0143043175</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272567.486325675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16352.18544265549</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11592.52045454036</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13117.60677809191</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>9654.274888703534</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11294.71593045444</v>
+        <v>35028.0143043175</v>
       </c>
       <c r="B2" t="n">
-        <v>1303.336705771959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272567.486325675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99766.71495596331</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16352.18544265549</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661911</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11592.52045454036</v>
       </c>
       <c r="I2" t="n">
-        <v>104956.287471058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133773.9036642085</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62629.78436223376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28519.15512817065</v>
+        <v>13117.60677809191</v>
       </c>
       <c r="O2" t="n">
-        <v>26075.03889961545</v>
+        <v>9654.274888703534</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.459349632513475</v>
+        <v>2366.658982337573</v>
       </c>
       <c r="O2" t="n">
-        <v>7.663455922194517</v>
+        <v>1995.412676509708</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.56139576022782</v>
+        <v>7540.299372506026</v>
       </c>
       <c r="O2" t="n">
-        <v>15.55438691646255</v>
+        <v>6256.367679449893</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>12882.34160925225</v>
       </c>
       <c r="O2" t="n">
-        <v>29.52072102211405</v>
+        <v>9261.533324927314</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>14040.19136169543</v>
       </c>
       <c r="O2" t="n">
-        <v>30.60089816728763</v>
+        <v>9261.533324927314</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>16870.34251754129</v>
       </c>
       <c r="O2" t="n">
-        <v>31.53493689325457</v>
+        <v>10093.83191070589</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.50849519700755</v>
+        <v>16870.34251754129</v>
       </c>
       <c r="O2" t="n">
-        <v>31.53493689325457</v>
+        <v>10093.83191070589</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5316.139655440325</v>
+        <v>5316.139655440329</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>7542.310400722788</v>
+        <v>7542.310400722792</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>2317.204104134014</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.412676509689</v>
+        <v>1995.41267650969</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7387.315360922054</v>
+        <v>7387.315360922055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7382.18890910614</v>
+        <v>7382.188909106125</v>
       </c>
       <c r="O2" t="n">
-        <v>5756.362569820732</v>
+        <v>5756.362569820735</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35028.0143043175</v>
+        <v>35028.01430431766</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16352.18544265549</v>
+        <v>16352.18544265527</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11592.52045454036</v>
+        <v>11592.52045454035</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13117.60677809191</v>
+        <v>13117.60677809189</v>
       </c>
       <c r="O2" t="n">
-        <v>9654.274888703534</v>
+        <v>9654.274888703549</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35028.0143043175</v>
+        <v>35028.01430431766</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16352.18544265549</v>
+        <v>16352.18544265527</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11592.52045454036</v>
+        <v>11592.52045454035</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13117.60677809191</v>
+        <v>13117.60677809189</v>
       </c>
       <c r="O2" t="n">
-        <v>9654.274888703534</v>
+        <v>9654.274888703549</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35028.0143043175</v>
+        <v>35028.01430431766</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16352.18544265549</v>
+        <v>16352.18544265527</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11592.52045454036</v>
+        <v>11592.52045454035</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13117.60677809191</v>
+        <v>13117.60677809189</v>
       </c>
       <c r="O2" t="n">
-        <v>9654.274888703534</v>
+        <v>9654.274888703549</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35028.0143043175</v>
+        <v>35028.01430431766</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16352.18544265549</v>
+        <v>16352.18544265527</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11592.52045454036</v>
+        <v>11592.52045454035</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13117.60677809191</v>
+        <v>13117.60677809189</v>
       </c>
       <c r="O2" t="n">
-        <v>9654.274888703534</v>
+        <v>9654.274888703549</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>348.111133040007</v>
+        <v>348.1111330400031</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>11299.89730188</v>
       </c>
       <c r="N2" t="n">
-        <v>7337.013682751313</v>
+        <v>7337.013682751316</v>
       </c>
       <c r="O2" t="n">
         <v>6991.647948766419</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>220.9181339077783</v>
+        <v>220.9181339077781</v>
       </c>
       <c r="B2" t="n">
         <v>6050.092133217868</v>
@@ -699,7 +699,7 @@
         <v>21956.38472896</v>
       </c>
       <c r="N2" t="n">
-        <v>10685.8390845415</v>
+        <v>10685.83908454149</v>
       </c>
       <c r="O2" t="n">
         <v>9283.603099344651</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2577.607803474762</v>
+        <v>2577.607803474735</v>
       </c>
       <c r="B2" t="n">
         <v>7296.571711709315</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59961.01146418095</v>
+        <v>59961.01146418096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>28243.54178664774</v>
+        <v>28243.54178664778</v>
       </c>
       <c r="N2" t="n">
-        <v>15618.49026829105</v>
+        <v>15618.49026829109</v>
       </c>
       <c r="O2" t="n">
         <v>15289.26274986199</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2577.607803474762</v>
+        <v>2577.607803474735</v>
       </c>
       <c r="B2" t="n">
         <v>7296.571711709315</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59961.01146418095</v>
+        <v>59961.01146418096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>28243.54178664774</v>
+        <v>28243.54178664778</v>
       </c>
       <c r="N2" t="n">
-        <v>15618.49026829105</v>
+        <v>15618.49026829109</v>
       </c>
       <c r="O2" t="n">
         <v>15289.26274986199</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2577.607803474762</v>
+        <v>2577.607803474735</v>
       </c>
       <c r="B2" t="n">
         <v>7296.571711709315</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59961.01146418095</v>
+        <v>59961.01146418096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>28243.54178664774</v>
+        <v>28243.54178664778</v>
       </c>
       <c r="N2" t="n">
-        <v>15618.49026829105</v>
+        <v>15618.49026829109</v>
       </c>
       <c r="O2" t="n">
         <v>15289.26274986199</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2577.607803474762</v>
+        <v>2577.607803474735</v>
       </c>
       <c r="B2" t="n">
         <v>7296.571711709315</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59961.01146418095</v>
+        <v>59961.01146418096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>59075.72160612671</v>
       </c>
       <c r="M2" t="n">
-        <v>28243.54178664774</v>
+        <v>28243.54178664778</v>
       </c>
       <c r="N2" t="n">
-        <v>15618.49026829105</v>
+        <v>15618.49026829109</v>
       </c>
       <c r="O2" t="n">
         <v>15289.26274986199</v>

--- a/results/[3_low_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[3_low_electricity_prices]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7152.019986098924</v>
+        <v>7152.019986098921</v>
       </c>
       <c r="O2" t="n">
-        <v>6979.505869462286</v>
+        <v>6979.505869462281</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10587.30466466927</v>
       </c>
       <c r="O2" t="n">
-        <v>12059.56090694894</v>
+        <v>12076.80007217423</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15122.94790489287</v>
+        <v>15110.18723133435</v>
       </c>
       <c r="O2" t="n">
-        <v>14757.33642912432</v>
+        <v>14758.23231153656</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15227.20816887006</v>
+        <v>15217.15884705062</v>
       </c>
       <c r="O2" t="n">
-        <v>14757.33642912432</v>
+        <v>14758.23231153656</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15761.83005432624</v>
+        <v>15760.98179418098</v>
       </c>
       <c r="O2" t="n">
-        <v>17090.83148627414</v>
+        <v>17091.72736868646</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15761.83005432624</v>
+        <v>15760.98179418098</v>
       </c>
       <c r="O2" t="n">
-        <v>17090.83148627414</v>
+        <v>17091.72736868646</v>
       </c>
     </row>
   </sheetData>
